--- a/input_files/case_files/BTES_base_case_wind_solar.xlsx
+++ b/input_files/case_files/BTES_base_case_wind_solar.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/var/folders/mb/bhrh7_m94j739pkhyn5p1l3w0000gn/T/fz3temp-2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/var/folders/m_/v6c97p3x1mg6bmvchddj43dc0000gn/T/fz3temp-2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AB94555-862A-4E4D-B8EB-2640702B6654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D47522A4-7141-9648-A8BF-449FDA433482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="15760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="case_input_intermodel_one_node_" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="114">
   <si>
     <t>Note that demand has no decisions.</t>
   </si>
@@ -98,280 +98,283 @@
     <t>Note that for MEM, storage is in energy units whereas for PyPSA it is in power units.</t>
   </si>
   <si>
+    <t>wind</t>
+  </si>
+  <si>
+    <t>cyclic_state_of_charge</t>
+  </si>
+  <si>
+    <t>electrolysis</t>
+  </si>
+  <si>
+    <t>bus1</t>
+  </si>
+  <si>
+    <t>h2</t>
+  </si>
+  <si>
+    <t>filename_prefix</t>
+  </si>
+  <si>
+    <t>datetime_start</t>
+  </si>
+  <si>
+    <t>datetime_end</t>
+  </si>
+  <si>
+    <t>output_data</t>
+  </si>
+  <si>
+    <t>input_path</t>
+  </si>
+  <si>
+    <t>Note: Dates must be formatted as text (not excel date format)</t>
+  </si>
+  <si>
+    <t>Note that any information that is in a column without an attribute header is consider a comment, and not used.</t>
+  </si>
+  <si>
+    <t>logging_level</t>
+  </si>
+  <si>
+    <t>time_series_file</t>
+  </si>
+  <si>
+    <t>Generator</t>
+  </si>
+  <si>
+    <t>Load</t>
+  </si>
+  <si>
+    <t>Note that H46-H52  contain formulas, and our PyPSA front end will read this in as a value.</t>
+  </si>
+  <si>
+    <t>Note: Can be error, warning, info, or debug and specifies level of detail in terminal output</t>
+  </si>
+  <si>
+    <t>Note: Factor to avoid rounding in Gurobi solver for small values</t>
+  </si>
+  <si>
+    <t>carrier</t>
+  </si>
+  <si>
+    <t>PyPSA case input file</t>
+  </si>
+  <si>
+    <t>PyPSA component type</t>
+  </si>
+  <si>
+    <t>Unique name of the component</t>
+  </si>
+  <si>
+    <t>Name of bus from which this technology would get or give its energy (or in the case of link, the giving bus)</t>
+  </si>
+  <si>
+    <t>Name of time series file that will get loaded</t>
+  </si>
+  <si>
+    <t>Fixed cost, if not defined default is 0</t>
+  </si>
+  <si>
+    <t>Marginal cost, if not defined default is 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hours at max capacity for StorageUnit </t>
+  </si>
+  <si>
+    <t>Efficiency of component</t>
+  </si>
+  <si>
+    <t>Assume cyclic state of charge for StorageUnit (Boolean)</t>
+  </si>
+  <si>
+    <t>Losses per hour to state of charge</t>
+  </si>
+  <si>
+    <t>Information about PyPSA components and their attributes can be found here: https://pypsa.readthedocs.io/en/latest/components.html</t>
+  </si>
+  <si>
+    <t>Note: For StorageUnit, efficiency is interpreted as efficiency_store</t>
+  </si>
+  <si>
+    <t>Note: For Link, bus is interpreted as bus0</t>
+  </si>
+  <si>
+    <t>time_unit</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>$</t>
+  </si>
+  <si>
+    <t>Note: p_nom is a factor multiplied to the given capacity</t>
+  </si>
+  <si>
+    <t>Note: If there is a # in front of component (e.g. #Generator), this row will be ignored</t>
+  </si>
+  <si>
+    <t>delta_t</t>
+  </si>
+  <si>
+    <t>Note: Capital costs are the product of hourly fixed costs and time_range</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>Store</t>
+  </si>
+  <si>
+    <t>Note: this assumes time unit for dt is 'hour'</t>
+  </si>
+  <si>
+    <t>no_time_steps</t>
+  </si>
+  <si>
+    <t>total_hours</t>
+  </si>
+  <si>
+    <t>Everything outside of  the &lt;CASE_DATA&gt; or &lt;COMPONENT_DATA&gt;  flag is for notes, etc.</t>
+  </si>
+  <si>
+    <t>COMPONENT_DATA</t>
+  </si>
+  <si>
+    <t>END_COMPONENT_DATA</t>
+  </si>
+  <si>
+    <t>costs_path</t>
+  </si>
+  <si>
+    <t>p_min_pu</t>
+  </si>
+  <si>
+    <t>Note: p_min_pu allow bidirectionality of link</t>
+  </si>
+  <si>
+    <t>solver</t>
+  </si>
+  <si>
+    <t>gurobi</t>
+  </si>
+  <si>
+    <t>power_unit</t>
+  </si>
+  <si>
+    <t>solar-utility</t>
+  </si>
+  <si>
+    <t>CCGT</t>
+  </si>
+  <si>
+    <t>onwind</t>
+  </si>
+  <si>
+    <t>hydrogen storage underground</t>
+  </si>
+  <si>
+    <t>fuel cell</t>
+  </si>
+  <si>
+    <t>db</t>
+  </si>
+  <si>
+    <t>info</t>
+  </si>
+  <si>
+    <t>oil</t>
+  </si>
+  <si>
+    <t>BTES</t>
+  </si>
+  <si>
+    <t>granite</t>
+  </si>
+  <si>
+    <t>btes</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Lithium-Ion-LFP-bicharger</t>
+  </si>
+  <si>
+    <t>electricity</t>
+  </si>
+  <si>
+    <t>lithium_ion_lfp</t>
+  </si>
+  <si>
+    <t>Lithium-Ion-LFP-store</t>
+  </si>
+  <si>
+    <t>lifetime</t>
+  </si>
+  <si>
+    <t>MW</t>
+  </si>
+  <si>
+    <t>input_files</t>
+  </si>
+  <si>
+    <t>input_files/costs_orca_base.csv</t>
+  </si>
+  <si>
+    <t>BTES_charger</t>
+  </si>
+  <si>
+    <t>BTES_discharger</t>
+  </si>
+  <si>
+    <t>p_set</t>
+  </si>
+  <si>
+    <t>p_max_pu</t>
+  </si>
+  <si>
+    <t>lost_load</t>
+  </si>
+  <si>
+    <t>CONUS_demand_2015_2024.csv</t>
+  </si>
+  <si>
+    <t>2019-01-01 00:00:00</t>
+  </si>
+  <si>
+    <t>2019-12-31 23:00:00</t>
+  </si>
+  <si>
+    <t>CONUS_solar_CF_2019.csv</t>
+  </si>
+  <si>
+    <t>CONUS_wind_CF_2019.csv</t>
+  </si>
+  <si>
+    <t>battery</t>
+  </si>
+  <si>
+    <t>hydrogen</t>
+  </si>
+  <si>
+    <t>Lithium-Ion-LFP-bicharger % discharge</t>
+  </si>
+  <si>
+    <t>#Generator</t>
+  </si>
+  <si>
     <t>nuclear</t>
   </si>
   <si>
-    <t>wind</t>
-  </si>
-  <si>
-    <t>cyclic_state_of_charge</t>
-  </si>
-  <si>
-    <t>electrolysis</t>
-  </si>
-  <si>
-    <t>bus1</t>
-  </si>
-  <si>
-    <t>h2</t>
-  </si>
-  <si>
-    <t>filename_prefix</t>
-  </si>
-  <si>
-    <t>datetime_start</t>
-  </si>
-  <si>
-    <t>datetime_end</t>
-  </si>
-  <si>
-    <t>output_data</t>
-  </si>
-  <si>
-    <t>input_path</t>
-  </si>
-  <si>
-    <t>Note: Dates must be formatted as text (not excel date format)</t>
-  </si>
-  <si>
-    <t>Note that any information that is in a column without an attribute header is consider a comment, and not used.</t>
-  </si>
-  <si>
-    <t>logging_level</t>
-  </si>
-  <si>
-    <t>time_series_file</t>
-  </si>
-  <si>
-    <t>Generator</t>
-  </si>
-  <si>
-    <t>Load</t>
-  </si>
-  <si>
-    <t>Note that H46-H52  contain formulas, and our PyPSA front end will read this in as a value.</t>
-  </si>
-  <si>
-    <t>Note: Can be error, warning, info, or debug and specifies level of detail in terminal output</t>
-  </si>
-  <si>
-    <t>Note: Factor to avoid rounding in Gurobi solver for small values</t>
-  </si>
-  <si>
-    <t>carrier</t>
-  </si>
-  <si>
-    <t>PyPSA case input file</t>
-  </si>
-  <si>
-    <t>PyPSA component type</t>
-  </si>
-  <si>
-    <t>Unique name of the component</t>
-  </si>
-  <si>
-    <t>Name of bus from which this technology would get or give its energy (or in the case of link, the giving bus)</t>
-  </si>
-  <si>
-    <t>Name of time series file that will get loaded</t>
-  </si>
-  <si>
-    <t>Fixed cost, if not defined default is 0</t>
-  </si>
-  <si>
-    <t>Marginal cost, if not defined default is 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hours at max capacity for StorageUnit </t>
-  </si>
-  <si>
-    <t>Efficiency of component</t>
-  </si>
-  <si>
-    <t>Assume cyclic state of charge for StorageUnit (Boolean)</t>
-  </si>
-  <si>
-    <t>Losses per hour to state of charge</t>
-  </si>
-  <si>
-    <t>Information about PyPSA components and their attributes can be found here: https://pypsa.readthedocs.io/en/latest/components.html</t>
-  </si>
-  <si>
-    <t>Note: For StorageUnit, efficiency is interpreted as efficiency_store</t>
-  </si>
-  <si>
-    <t>Note: For Link, bus is interpreted as bus0</t>
-  </si>
-  <si>
-    <t>time_unit</t>
-  </si>
-  <si>
-    <t>currency</t>
-  </si>
-  <si>
-    <t>h</t>
-  </si>
-  <si>
-    <t>$</t>
-  </si>
-  <si>
-    <t>Note: p_nom is a factor multiplied to the given capacity</t>
-  </si>
-  <si>
-    <t>Note: If there is a # in front of component (e.g. #Generator), this row will be ignored</t>
-  </si>
-  <si>
-    <t>delta_t</t>
-  </si>
-  <si>
-    <t>Note: Capital costs are the product of hourly fixed costs and time_range</t>
-  </si>
-  <si>
-    <t>Link</t>
-  </si>
-  <si>
-    <t>Store</t>
-  </si>
-  <si>
-    <t>Note: this assumes time unit for dt is 'hour'</t>
-  </si>
-  <si>
-    <t>no_time_steps</t>
-  </si>
-  <si>
-    <t>total_hours</t>
-  </si>
-  <si>
-    <t>Everything outside of  the &lt;CASE_DATA&gt; or &lt;COMPONENT_DATA&gt;  flag is for notes, etc.</t>
-  </si>
-  <si>
-    <t>COMPONENT_DATA</t>
-  </si>
-  <si>
-    <t>END_COMPONENT_DATA</t>
-  </si>
-  <si>
-    <t>costs_path</t>
-  </si>
-  <si>
-    <t>p_min_pu</t>
-  </si>
-  <si>
-    <t>Note: p_min_pu allow bidirectionality of link</t>
-  </si>
-  <si>
-    <t>solver</t>
-  </si>
-  <si>
-    <t>gurobi</t>
-  </si>
-  <si>
-    <t>power_unit</t>
-  </si>
-  <si>
-    <t>solar-utility</t>
-  </si>
-  <si>
-    <t>CCGT</t>
-  </si>
-  <si>
-    <t>onwind</t>
-  </si>
-  <si>
-    <t>hydrogen storage underground</t>
-  </si>
-  <si>
-    <t>fuel cell</t>
-  </si>
-  <si>
-    <t>db</t>
-  </si>
-  <si>
-    <t>info</t>
-  </si>
-  <si>
-    <t>oil</t>
-  </si>
-  <si>
-    <t>BTES</t>
-  </si>
-  <si>
-    <t>granite</t>
-  </si>
-  <si>
-    <t>btes</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>Lithium-Ion-LFP-bicharger</t>
-  </si>
-  <si>
-    <t>electricity</t>
-  </si>
-  <si>
-    <t>lithium_ion_lfp</t>
-  </si>
-  <si>
-    <t>Lithium-Ion-LFP-store</t>
-  </si>
-  <si>
-    <t>lifetime</t>
-  </si>
-  <si>
-    <t>MW</t>
-  </si>
-  <si>
-    <t>input_files</t>
-  </si>
-  <si>
-    <t>input_files/costs_orca_base.csv</t>
-  </si>
-  <si>
-    <t>BTES_charger</t>
-  </si>
-  <si>
-    <t>BTES_discharger</t>
-  </si>
-  <si>
-    <t>p_set</t>
-  </si>
-  <si>
-    <t>p_max_pu</t>
-  </si>
-  <si>
-    <t>lost_load</t>
-  </si>
-  <si>
-    <t>#Generator</t>
-  </si>
-  <si>
-    <t>CONUS_demand_2015_2024.csv</t>
-  </si>
-  <si>
-    <t>CONUS_solar_CF_2019.csv</t>
-  </si>
-  <si>
-    <t>CONUS_wind_CF_2019.csv</t>
-  </si>
-  <si>
-    <t>2019-01-01 00:00:00</t>
-  </si>
-  <si>
-    <t>2019-12-31 23:00:00</t>
-  </si>
-  <si>
-    <t>battery</t>
-  </si>
-  <si>
-    <t>hydrogen</t>
+    <t>btes_wind_solar_output</t>
   </si>
   <si>
     <t>btes_base_case_orca_wind_solar</t>
-  </si>
-  <si>
-    <t>btes_output_wind_solar</t>
   </si>
 </sst>
 </file>
@@ -1264,10 +1267,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V71"/>
+  <dimension ref="A1:V72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1292,7 +1295,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -1310,7 +1313,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -1348,7 +1351,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -1379,7 +1382,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -1391,7 +1394,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -1403,7 +1406,7 @@
         <v>13</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -1430,10 +1433,10 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -1445,7 +1448,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -1457,7 +1460,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -1469,7 +1472,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -1478,10 +1481,10 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -1493,7 +1496,7 @@
         <v>8</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -1505,7 +1508,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -1519,18 +1522,18 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -1538,7 +1541,7 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -1546,12 +1549,12 @@
         <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B29" t="s">
         <v>112</v>
@@ -1559,28 +1562,28 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C31" s="6"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -1589,19 +1592,19 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B33" s="11">
         <f>((B31-B30)*24+1)/B32</f>
         <v>8760.0000000000582</v>
       </c>
       <c r="C33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B34" s="11">
         <f>B33*B32</f>
@@ -1614,23 +1617,23 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>74</v>
+      </c>
+      <c r="B36" s="14" t="s">
         <v>75</v>
-      </c>
-      <c r="B36" s="14" t="s">
-        <v>76</v>
       </c>
       <c r="C36" s="4"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
@@ -1642,39 +1645,39 @@
       </c>
       <c r="C38" s="1"/>
       <c r="D38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B39" s="1"/>
       <c r="C39" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C40" s="1"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C41" s="1"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C42" s="1"/>
     </row>
@@ -1682,7 +1685,7 @@
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="F43" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.2">
@@ -1690,23 +1693,23 @@
         <v>9</v>
       </c>
       <c r="I44" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D45" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H45" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O45" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="49" spans="1:22" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
@@ -1717,22 +1720,22 @@
         <v>12</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G49" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H49" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="I49" s="2" t="s">
         <v>14</v>
@@ -1741,18 +1744,18 @@
         <v>15</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N49" s="2" t="s">
         <v>8</v>
       </c>
       <c r="O49" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B50" t="s">
         <v>10</v>
@@ -1761,10 +1764,10 @@
         <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G50" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I50" s="5"/>
       <c r="K50" s="5"/>
@@ -1773,244 +1776,241 @@
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B51" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C51" t="s">
         <v>18</v>
       </c>
       <c r="D51" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H51" t="s">
         <v>105</v>
       </c>
       <c r="I51" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J51" t="str">
         <f>B42 &amp; "/time range/" &amp; B41</f>
         <v>$/time range/MW</v>
       </c>
       <c r="K51" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L51" t="str">
         <f xml:space="preserve"> B42 &amp; "/" &amp; B41 &amp; B40</f>
         <v>$/MWh</v>
       </c>
       <c r="N51" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O51" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B52" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C52" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H52" t="s">
         <v>106</v>
       </c>
       <c r="I52" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J52" t="str">
         <f>B42 &amp; "/time range/" &amp; B41</f>
         <v>$/time range/MW</v>
       </c>
       <c r="K52" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L52" t="str">
         <f xml:space="preserve"> B42 &amp; "/" &amp; B41 &amp; B40</f>
         <v>$/MWh</v>
       </c>
       <c r="N52" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O52" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
-        <v>103</v>
+        <v>35</v>
       </c>
       <c r="B53" t="s">
-        <v>21</v>
+        <v>111</v>
       </c>
       <c r="C53" t="s">
-        <v>21</v>
+        <v>111</v>
       </c>
       <c r="D53" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I53" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J53" t="str">
         <f>B42 &amp; "/time range/" &amp; B41</f>
         <v>$/time range/MW</v>
       </c>
       <c r="K53" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L53" t="str">
         <f xml:space="preserve"> B42 &amp; "/" &amp; B41 &amp; B40</f>
         <v>$/MWh</v>
       </c>
       <c r="N53" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O53" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="B54" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C54" t="s">
         <v>19</v>
       </c>
       <c r="D54" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I54" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J54" t="str">
         <f>B42 &amp; "/time range/" &amp; B41</f>
         <v>$/time range/MW</v>
       </c>
       <c r="K54" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L54" t="str">
         <f xml:space="preserve"> B42 &amp; "/" &amp; B41 &amp; B40</f>
         <v>$/MWh</v>
       </c>
       <c r="N54" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O54" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="B55" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C55" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D55" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I55" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J55" t="str">
         <f>B42 &amp; "/time range/" &amp; B41</f>
         <v>$/time range/MW</v>
       </c>
       <c r="K55" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L55" t="str">
         <f xml:space="preserve"> B42 &amp; "/" &amp; B41 &amp; B40</f>
         <v>$/MWh</v>
       </c>
       <c r="N55" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O55" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B56" t="s">
+        <v>89</v>
+      </c>
+      <c r="C56" t="s">
+        <v>107</v>
+      </c>
+      <c r="D56" t="s">
         <v>90</v>
       </c>
-      <c r="C56" t="s">
-        <v>109</v>
-      </c>
-      <c r="D56" t="s">
+      <c r="E56" t="s">
         <v>91</v>
       </c>
-      <c r="E56" t="s">
-        <v>92</v>
-      </c>
-      <c r="F56">
-        <v>-1</v>
-      </c>
       <c r="I56" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J56" t="str">
         <f>B42 &amp; "/time range/" &amp; B41</f>
         <v>$/time range/MW</v>
       </c>
       <c r="K56" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L56" t="str">
         <f xml:space="preserve"> B42 &amp; "/" &amp; B41 &amp; B40</f>
         <v>$/MWh</v>
       </c>
       <c r="N56" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O56" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R56" s="5"/>
       <c r="V56" s="5"/>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B57" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C57" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D57" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J57" t="str">
         <f>B42 &amp; "/time range/" &amp; B41</f>
         <v>$/time range/MW</v>
       </c>
       <c r="K57" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L57" t="str">
         <f xml:space="preserve"> B42 &amp; "/" &amp; B41 &amp; B40</f>
@@ -2020,198 +2020,200 @@
         <v>1</v>
       </c>
       <c r="N57" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O57" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R57" s="5"/>
       <c r="V57" s="5"/>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A58" s="6" t="s">
-        <v>64</v>
+      <c r="A58" t="s">
+        <v>63</v>
       </c>
       <c r="B58" t="s">
-        <v>24</v>
+        <v>109</v>
       </c>
       <c r="C58" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D58" t="s">
         <v>91</v>
       </c>
       <c r="E58" t="s">
-        <v>26</v>
-      </c>
-      <c r="I58" s="15" t="s">
-        <v>83</v>
+        <v>90</v>
+      </c>
+      <c r="I58" s="5">
+        <v>0</v>
       </c>
       <c r="J58" t="str">
+        <f>B41 &amp; "/time range/" &amp; B40</f>
+        <v>MW/time range/h</v>
+      </c>
+      <c r="K58" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="L58" t="str">
+        <f xml:space="preserve"> B41 &amp; "/" &amp; B40 &amp; B39</f>
+        <v>MW/h</v>
+      </c>
+      <c r="N58" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="O58" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="R58" s="5"/>
+      <c r="V58" s="5"/>
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A59" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B59" t="s">
+        <v>23</v>
+      </c>
+      <c r="C59" t="s">
+        <v>108</v>
+      </c>
+      <c r="D59" t="s">
+        <v>90</v>
+      </c>
+      <c r="E59" t="s">
+        <v>25</v>
+      </c>
+      <c r="I59" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="J59" t="str">
         <f>B42 &amp; "/time range/" &amp; B41</f>
         <v>$/time range/MW</v>
       </c>
-      <c r="K58" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="L58" t="str">
-        <f xml:space="preserve"> B42 &amp; "/" &amp; B41 &amp; B40</f>
-        <v>$/MWh</v>
-      </c>
-      <c r="N58" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="O58" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A59" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B59" t="s">
-        <v>81</v>
-      </c>
-      <c r="C59" t="s">
-        <v>110</v>
-      </c>
-      <c r="D59" t="s">
-        <v>26</v>
-      </c>
-      <c r="I59" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="J59" t="str">
-        <f>B42 &amp; "/time range/" &amp; B41 &amp; B40</f>
-        <v>$/time range/MWh</v>
-      </c>
       <c r="K59" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L59" t="str">
         <f xml:space="preserve"> B42 &amp; "/" &amp; B41 &amp; B40</f>
         <v>$/MWh</v>
       </c>
-      <c r="M59" t="b">
-        <v>1</v>
-      </c>
       <c r="N59" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O59" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="P59" s="1"/>
+        <v>82</v>
+      </c>
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
         <v>64</v>
       </c>
       <c r="B60" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C60" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D60" t="s">
-        <v>26</v>
-      </c>
-      <c r="E60" t="s">
-        <v>91</v>
+        <v>25</v>
       </c>
       <c r="I60" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J60" t="str">
-        <f>B42 &amp; "/time range/" &amp; B41</f>
-        <v>$/time range/MW</v>
+        <f>B42 &amp; "/time range/" &amp; B41 &amp; B40</f>
+        <v>$/time range/MWh</v>
       </c>
       <c r="K60" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="L60" s="13" t="str">
+        <v>82</v>
+      </c>
+      <c r="L60" t="str">
         <f xml:space="preserve"> B42 &amp; "/" &amp; B41 &amp; B40</f>
         <v>$/MWh</v>
       </c>
+      <c r="M60" t="b">
+        <v>1</v>
+      </c>
       <c r="N60" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O60" s="5" t="s">
-        <v>83</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="P60" s="1"/>
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B61" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="C61" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="D61" t="s">
-        <v>91</v>
+        <v>25</v>
       </c>
       <c r="E61" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I61" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J61" t="str">
         <f>B42 &amp; "/time range/" &amp; B41</f>
         <v>$/time range/MW</v>
       </c>
       <c r="K61" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="L61" t="str">
+        <v>82</v>
+      </c>
+      <c r="L61" s="13" t="str">
         <f xml:space="preserve"> B42 &amp; "/" &amp; B41 &amp; B40</f>
         <v>$/MWh</v>
       </c>
       <c r="N61" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O61" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B62" t="s">
+        <v>97</v>
+      </c>
+      <c r="C62" t="s">
+        <v>85</v>
+      </c>
+      <c r="D62" t="s">
+        <v>90</v>
+      </c>
+      <c r="E62" t="s">
         <v>87</v>
       </c>
-      <c r="C62" t="s">
-        <v>86</v>
-      </c>
-      <c r="D62" t="s">
-        <v>88</v>
-      </c>
       <c r="I62" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J62" t="str">
         <f>B42 &amp; "/time range/" &amp; B41</f>
         <v>$/time range/MW</v>
       </c>
       <c r="K62" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L62" t="str">
         <f xml:space="preserve"> B42 &amp; "/" &amp; B41 &amp; B40</f>
         <v>$/MWh</v>
       </c>
-      <c r="M62" t="b">
-        <v>1</v>
-      </c>
       <c r="N62" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O62" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.2">
@@ -2219,89 +2221,126 @@
         <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="C63" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D63" t="s">
-        <v>88</v>
-      </c>
-      <c r="E63" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I63" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J63" t="str">
         <f>B42 &amp; "/time range/" &amp; B41</f>
         <v>$/time range/MW</v>
       </c>
       <c r="K63" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L63" t="str">
         <f xml:space="preserve"> B42 &amp; "/" &amp; B41 &amp; B40</f>
         <v>$/MWh</v>
       </c>
+      <c r="M63" t="b">
+        <v>1</v>
+      </c>
       <c r="N63" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O63" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>102</v>
+        <v>98</v>
+      </c>
+      <c r="C64" t="s">
+        <v>85</v>
       </c>
       <c r="D64" t="s">
-        <v>91</v>
-      </c>
-      <c r="I64" s="15"/>
-      <c r="K64" s="5">
-        <v>10000</v>
+        <v>87</v>
+      </c>
+      <c r="E64" t="s">
+        <v>90</v>
+      </c>
+      <c r="I64" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="J64" t="str">
+        <f>B42 &amp; "/time range/" &amp; B41</f>
+        <v>$/time range/MW</v>
+      </c>
+      <c r="K64" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="L64" t="str">
         <f xml:space="preserve"> B42 &amp; "/" &amp; B41 &amp; B40</f>
         <v>$/MWh</v>
       </c>
-      <c r="N64" s="5"/>
-      <c r="O64" s="5"/>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="O64" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A65" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B65" t="s">
+        <v>101</v>
+      </c>
+      <c r="D65" t="s">
+        <v>90</v>
+      </c>
+      <c r="I65" s="15"/>
+      <c r="K65" s="5">
+        <v>10000</v>
+      </c>
+      <c r="L65" t="str">
+        <f xml:space="preserve"> B42 &amp; "/" &amp; B41 &amp; B40</f>
+        <v>$/MWh</v>
+      </c>
+      <c r="N65" s="5"/>
+      <c r="O65" s="5"/>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A70" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B70" s="10"/>
-      <c r="C70" s="10"/>
-      <c r="L70" s="7"/>
-      <c r="M70" s="7"/>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>61</v>
-      </c>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A71" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B71" s="10"/>
+      <c r="C71" s="10"/>
       <c r="L71" s="7"/>
       <c r="M71" s="7"/>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>60</v>
+      </c>
+      <c r="L72" s="7"/>
+      <c r="M72" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
